--- a/excercises/excercises/100.ESP_well.xlsx
+++ b/excercises/excercises/100.ESP_well.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86358F-66C4-4C54-9237-05BE82BBC350}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026B216D-C179-4962-89CA-16B5BAB6D9F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,7 +891,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,6 +943,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1063,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,12 +1174,6 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1181,6 +1181,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6572,15 +6581,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>455839</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>8452</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>113806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6609,16 +6618,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>414619</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>530074</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:rowOff>142448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>328573</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>107255</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>447387</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>115453</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6648,15 +6657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>31217</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>144874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>563896</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>140873</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6685,16 +6694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>529554</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>147277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>507866</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>129668</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>44499</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6802,13 +6811,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>1. Как влияет сепарация, естесственная и искусственная, на работу скважины?</a:t>
+            <a:t>1. Как влияет сепарация, естественная и искусственная, на работу скважины?</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>2. Что позволяет учесть коэффициент деградации напорной характерстики ЭЦН?</a:t>
+            <a:t>2. Что позволяет учесть коэффициент деградации напорной характеристики ЭЦН?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7160,8 +7169,8 @@
   </sheetPr>
   <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="R125" sqref="R125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7565,26 +7574,26 @@
         <v>737</v>
       </c>
       <c r="D38" s="17"/>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
     </row>
     <row r="39" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
@@ -7595,27 +7604,27 @@
         <v>ВНН5-125</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="G39" s="43" t="str">
+      <c r="G39" s="46" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:32,950;tksep_C:85,000;</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
@@ -7638,26 +7647,26 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
@@ -7667,33 +7676,33 @@
         <v>0.9</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="G42" s="43" t="str">
+      <c r="G42" s="46" t="str">
         <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
         <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="47">
         <v>32.950000000000003</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -7710,49 +7719,49 @@
       <c r="D44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="42" t="s">
+      <c r="G44" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G45" s="43" t="str">
+      <c r="G45" s="46" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep2,TKsep2)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:6,730;tksep_C:85,000;</v>
       </c>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -8366,7 +8375,7 @@
       <c r="C93" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="46">
+      <c r="D93" s="44">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,Pwf1_,fw_,Pb_)</f>
         <v>54.555314533622564</v>
       </c>
@@ -8406,10 +8415,10 @@
     </row>
     <row r="98" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="3:14" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="44" t="s">
+      <c r="C99" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="9"/>
@@ -8442,10 +8451,10 @@
       </c>
     </row>
     <row r="100" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="45">
+      <c r="C100" s="43">
         <v>0</v>
       </c>
-      <c r="D100" s="45">
+      <c r="D100" s="43">
         <f t="shared" ref="D100:D119" si="2">D101-Tgrad*(C101-C100)/100</f>
         <v>40</v>
       </c>
@@ -8462,11 +8471,11 @@
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="45">
+      <c r="C101" s="43">
         <f t="shared" ref="C101:C120" si="3">C100+Hmes_/N_</f>
         <v>100</v>
       </c>
-      <c r="D101" s="45">
+      <c r="D101" s="43">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
@@ -8483,11 +8492,11 @@
       <c r="L101" s="6"/>
     </row>
     <row r="102" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="45">
+      <c r="C102" s="43">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="D102" s="45">
+      <c r="D102" s="43">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
@@ -8504,11 +8513,11 @@
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="45">
+      <c r="C103" s="43">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="D103" s="45">
+      <c r="D103" s="43">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
@@ -8525,11 +8534,11 @@
       <c r="L103" s="6"/>
     </row>
     <row r="104" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="45">
+      <c r="C104" s="43">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="D104" s="45">
+      <c r="D104" s="43">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
@@ -8546,11 +8555,11 @@
       <c r="L104" s="6"/>
     </row>
     <row r="105" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="45">
+      <c r="C105" s="43">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="D105" s="45">
+      <c r="D105" s="43">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
@@ -8567,11 +8576,11 @@
       <c r="L105" s="6"/>
     </row>
     <row r="106" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="45">
+      <c r="C106" s="43">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="D106" s="45">
+      <c r="D106" s="43">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
@@ -8588,11 +8597,11 @@
       <c r="L106" s="6"/>
     </row>
     <row r="107" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="45">
+      <c r="C107" s="43">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="D107" s="45">
+      <c r="D107" s="43">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
@@ -8609,11 +8618,11 @@
       <c r="L107" s="6"/>
     </row>
     <row r="108" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="45">
+      <c r="C108" s="43">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="D108" s="45">
+      <c r="D108" s="43">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -8630,11 +8639,11 @@
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="45">
+      <c r="C109" s="43">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="D109" s="45">
+      <c r="D109" s="43">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
@@ -8651,11 +8660,11 @@
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="45">
+      <c r="C110" s="43">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="D110" s="45">
+      <c r="D110" s="43">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -8672,11 +8681,11 @@
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="45">
+      <c r="C111" s="43">
         <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="D111" s="45">
+      <c r="D111" s="43">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
@@ -8693,11 +8702,11 @@
       <c r="L111" s="6"/>
     </row>
     <row r="112" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="45">
+      <c r="C112" s="43">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="D112" s="45">
+      <c r="D112" s="43">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
@@ -8714,11 +8723,11 @@
       <c r="L112" s="6"/>
     </row>
     <row r="113" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="45">
+      <c r="C113" s="43">
         <f t="shared" si="3"/>
         <v>1300</v>
       </c>
-      <c r="D113" s="45">
+      <c r="D113" s="43">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
@@ -8735,11 +8744,11 @@
       <c r="L113" s="6"/>
     </row>
     <row r="114" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="45">
+      <c r="C114" s="43">
         <f t="shared" si="3"/>
         <v>1400</v>
       </c>
-      <c r="D114" s="45">
+      <c r="D114" s="43">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
@@ -8759,11 +8768,11 @@
       <c r="B115" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="45">
+      <c r="C115" s="43">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="D115" s="45">
+      <c r="D115" s="43">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
@@ -8806,11 +8815,11 @@
       </c>
     </row>
     <row r="116" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="45">
+      <c r="C116" s="43">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="D116" s="45">
+      <c r="D116" s="43">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
@@ -8827,11 +8836,11 @@
       <c r="M116" s="6"/>
     </row>
     <row r="117" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="45">
+      <c r="C117" s="43">
         <f t="shared" si="3"/>
         <v>1700</v>
       </c>
-      <c r="D117" s="45">
+      <c r="D117" s="43">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
@@ -8847,11 +8856,11 @@
       <c r="M117" s="6"/>
     </row>
     <row r="118" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="45">
+      <c r="C118" s="43">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="D118" s="45">
+      <c r="D118" s="43">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
@@ -8867,11 +8876,11 @@
       <c r="M118" s="6"/>
     </row>
     <row r="119" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="45">
+      <c r="C119" s="43">
         <f t="shared" si="3"/>
         <v>1900</v>
       </c>
-      <c r="D119" s="45">
+      <c r="D119" s="43">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
@@ -8887,11 +8896,11 @@
       <c r="M119" s="6"/>
     </row>
     <row r="120" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="45">
+      <c r="C120" s="43">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="D120" s="45">
+      <c r="D120" s="43">
         <f>Tres_</f>
         <v>100</v>
       </c>
@@ -8918,12 +8927,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G45:X45"/>
     <mergeCell ref="G38:X38"/>
     <mergeCell ref="G39:X39"/>
     <mergeCell ref="G41:X41"/>
     <mergeCell ref="G42:X42"/>
     <mergeCell ref="G44:X44"/>
-    <mergeCell ref="G45:X45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excercises/excercises/100.ESP_well.xlsx
+++ b/excercises/excercises/100.ESP_well.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026B216D-C179-4962-89CA-16B5BAB6D9F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE4A74B-A25D-4CCD-AAB0-5EC628162174}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="1845" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="well" sheetId="107" r:id="rId1"/>
@@ -73,6 +73,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1183,13 +1184,13 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2477,7 +2478,7 @@
                   <c:v>5.749702253152948E-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3981553157034315E-18</c:v>
+                  <c:v>5.3981553157034307E-18</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.1005545337288538E-18</c:v>
@@ -7169,8 +7170,8 @@
   </sheetPr>
   <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="R125" sqref="R125"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7195,7 +7196,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7574,26 +7575,26 @@
         <v>737</v>
       </c>
       <c r="D38" s="17"/>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
     </row>
     <row r="39" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
@@ -7606,7 +7607,7 @@
       <c r="D39" s="17"/>
       <c r="G39" s="46" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:32,950;tksep_C:85,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:5.000;PVTcorr:0;ksep_fr:0.900;pksep_atma:32.950;tksep_C:85.000;</v>
       </c>
       <c r="H39" s="46"/>
       <c r="I39" s="46"/>
@@ -7647,26 +7648,26 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
@@ -7678,7 +7679,7 @@
       <c r="D42" s="17"/>
       <c r="G42" s="46" t="str">
         <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
+        <v>ESP_ID:737.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;Tintake_C:85.00000;Tdis_C:85.00000;KsepGS_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_Hmes_m:0.00000;GasDegtType:0;Kdegr:0.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
       </c>
       <c r="H42" s="46"/>
       <c r="I42" s="46"/>
@@ -7702,7 +7703,7 @@
       <c r="B43" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="45">
         <v>32.950000000000003</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -7719,31 +7720,31 @@
       <c r="D44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="45" t="s">
+      <c r="G44" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G45" s="46" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep2,TKsep2)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:6,730;tksep_C:85,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:5.000;PVTcorr:0;ksep_fr:0.900;pksep_atma:6.730;tksep_C:85.000;</v>
       </c>
       <c r="H45" s="46"/>
       <c r="I45" s="46"/>
@@ -8121,7 +8122,7 @@
       <c r="F74" s="6"/>
       <c r="J74" s="30">
         <f>[1]!MF_gas_fraction_d(K74,D74,fw_,PVT_str_)</f>
-        <v>5.3981553157034315E-18</v>
+        <v>5.3981553157034307E-18</v>
       </c>
       <c r="K74" s="20">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C74,K73,PVT_str_,theta_,Dintake_,,D73,D74)</f>

--- a/excercises/excercises/100.ESP_well.xlsx
+++ b/excercises/excercises/100.ESP_well.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE4A74B-A25D-4CCD-AAB0-5EC628162174}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CCFF0A-31C7-4AAE-8056-AC95EDF5B71A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="1845" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="well" sheetId="107" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>Q</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>Расчет распределения давления в скважине, оснащенной ЭЦН</t>
+  </si>
+  <si>
+    <t>Поправка</t>
   </si>
 </sst>
 </file>
@@ -954,7 +957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1009,19 +1012,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1064,7 +1054,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,16 +1129,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,7 +1148,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,7 +1158,7 @@
     <xf numFmtId="2" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1338,19 +1325,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="15">
-                  <c:v>32.947476615167879</c:v>
+                  <c:v>30.985733198550612</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39.849063530788378</c:v>
+                  <c:v>38.167180932718928</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.170208670418269</c:v>
+                  <c:v>46.019832342828991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.771513193496723</c:v>
+                  <c:v>54.010662961718801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62.390584203938701</c:v>
+                  <c:v>62.005127076195684</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
                   <c:v>70</c:v>
@@ -1474,7 +1461,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="15">
-                  <c:v>138.53532929463225</c:v>
+                  <c:v>140.55977685615014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,49 +1585,49 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.069598837794928</c:v>
+                  <c:v>26.849083227966933</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.098847698491511</c:v>
+                  <c:v>34.391022795883714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.095408595123139</c:v>
+                  <c:v>42.58791116609396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.068776094690534</c:v>
+                  <c:v>50.801006008814632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.023563548114204</c:v>
+                  <c:v>59.007037636116998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.959637268474665</c:v>
+                  <c:v>67.205375363318268</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.876913827273654</c:v>
+                  <c:v>75.390497417594091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.775340910388138</c:v>
+                  <c:v>83.567306314317037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.654886861237017</c:v>
+                  <c:v>91.735596505487905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99.51553454533034</c:v>
+                  <c:v>99.89521353811547</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107.35727753513933</c:v>
+                  <c:v>108.04603811321746</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115.18011761959782</c:v>
+                  <c:v>116.1879759834637</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>122.98406310901045</c:v>
+                  <c:v>124.32095129233221</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130.76912763837063</c:v>
+                  <c:v>132.44490203221255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>138.53532929463225</c:v>
+                  <c:v>140.55977685615014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1761,7 +1748,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="15">
-                  <c:v>32.947476615167879</c:v>
+                  <c:v>30.985733198550612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2301,22 +2288,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="15" formatCode="0%">
-                  <c:v>0.18328843623623559</c:v>
+                  <c:v>0.21179231693746101</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0%">
-                  <c:v>0.10045416755297634</c:v>
+                  <c:v>8.1470538245978982E-2</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0%">
-                  <c:v>2.7175553771486814E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0%">
-                  <c:v>1.1037730772739565E-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0%">
-                  <c:v>9.7652416533565044E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0%">
-                  <c:v>8.7797688233162175E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,52 +2432,52 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.34402803909956181</c:v>
+                  <c:v>0.37651312845919432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19346776399272486</c:v>
+                  <c:v>0.20951561389793688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6557121348091631E-2</c:v>
+                  <c:v>4.4226404828620544E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2297345569209519E-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0442198408627226E-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1007381124813757E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0899955512923439E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3042751245453246E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6783211840428977E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.169710707498186E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.749702253152948E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3981553157034307E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1005545337288538E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8461878175799456E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6269885636720617E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4367760687290421E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,22 +3012,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="15">
-                  <c:v>6.7331438088841065</c:v>
+                  <c:v>29.555856184319655</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.051738663066907</c:v>
+                  <c:v>37.647808746435871</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.096438044379216</c:v>
+                  <c:v>45.741003998978627</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.855097652679916</c:v>
+                  <c:v>53.831983978691397</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.362274830400281</c:v>
+                  <c:v>61.918740334577336</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>40</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,52 +3156,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>27.870144873562399</c:v>
+                  <c:v>81.550863767453876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.991958694702568</c:v>
+                  <c:v>89.857988124148349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.089790465210328</c:v>
+                  <c:v>98.155714635210344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.164731588296547</c:v>
+                  <c:v>106.44418929715984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.217390592598726</c:v>
+                  <c:v>114.72351902958214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.248142503160679</c:v>
+                  <c:v>122.99378330358932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.257236682032556</c:v>
+                  <c:v>131.2550418968174</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.244849693692998</c:v>
+                  <c:v>139.50734021071773</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.211113671128615</c:v>
+                  <c:v>147.75071300161892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.15613260881571</c:v>
+                  <c:v>155.98518704966031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.07999222907593</c:v>
+                  <c:v>164.21078309872837</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>115.98276621182417</c:v>
+                  <c:v>172.42751728516939</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>123.86452026179741</c:v>
+                  <c:v>180.63540220120836</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131.72531483600002</c:v>
+                  <c:v>188.83444769303628</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>139.56520701207378</c:v>
+                  <c:v>197.02466146340223</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>147.38425178956899</c:v>
+                  <c:v>205.20604952837439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3754,22 +3741,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="15" formatCode="0%">
-                  <c:v>0.73571692055192517</c:v>
+                  <c:v>0.24067644173163219</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0%">
-                  <c:v>0.58181747834042796</c:v>
+                  <c:v>9.0984814014799631E-2</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0%">
-                  <c:v>0.44288839994951162</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0%">
-                  <c:v>0.31884910134615718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0%">
-                  <c:v>0.20836499535858</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0%">
-                  <c:v>0.11751890522059669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3898,52 +3885,52 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.19201531106691469</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2654452374216222E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.219341357564452E-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0329784890851479E-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.988105467755807E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9805696439782448E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1994198163644578E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5784691792870963E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0748639229061196E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6596660303075542E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3126519568417556E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0192791692298551E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7688356817856416E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5532677718861448E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3664129806500547E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2034840859843011E-18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6845,15 +6832,15 @@
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
-      <definedName name="ESP_dP_atm"/>
-      <definedName name="ESP_Encode_string"/>
+      <definedName name="ESP_dp_atm"/>
+      <definedName name="ESP_encode_string"/>
       <definedName name="ESP_head_m"/>
       <definedName name="ESP_id_by_rate"/>
-      <definedName name="esp_max_rate_m3day"/>
+      <definedName name="ESP_max_rate_m3day"/>
       <definedName name="ESP_name"/>
       <definedName name="getUFVersion"/>
-      <definedName name="IPR_PI_sm3dayatm"/>
-      <definedName name="IPR_Qliq_sm3Day"/>
+      <definedName name="IPR_pi_sm3dayatm"/>
+      <definedName name="IPR_qliq_sm3day"/>
       <definedName name="MF_gas_fraction_d"/>
       <definedName name="MF_ksep_natural_d"/>
       <definedName name="MF_ksep_total_d"/>
@@ -7170,8 +7157,8 @@
   </sheetPr>
   <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7196,7 +7183,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7575,26 +7562,26 @@
         <v>737</v>
       </c>
       <c r="D38" s="17"/>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
     </row>
     <row r="39" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
@@ -7605,34 +7592,34 @@
         <v>ВНН5-125</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="G39" s="46" t="str">
+      <c r="G39" s="45" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:5.000;PVTcorr:0;ksep_fr:0.900;pksep_atma:32.950;tksep_C:85.000;</v>
-      </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:32,950;tksep_C:85,000;</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="12">
-        <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
+        <f>[1]!ESP_max_rate_m3day(Freq_,PumpID_)*1</f>
         <v>230</v>
       </c>
       <c r="D40" s="17"/>
@@ -7648,26 +7635,26 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
@@ -7677,33 +7664,33 @@
         <v>0.9</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="G42" s="46" t="str">
-        <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;Tintake_C:85.00000;Tdis_C:85.00000;KsepGS_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_Hmes_m:0.00000;GasDegtType:0;Kdegr:0.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
-      </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
+      <c r="G42" s="45" t="str">
+        <f>[1]!ESP_encode_string(PumpID_,Head_ESP_,Freq_)</f>
+        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:0,00000;c_calibr_rate:0,00000;c_calibr_power:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
+      </c>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="44">
         <v>32.950000000000003</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -7720,49 +7707,49 @@
       <c r="D44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="47" t="s">
+      <c r="G44" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G45" s="46" t="str">
+      <c r="G45" s="45" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep2,TKsep2)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:5.000;PVTcorr:0;ksep_fr:0.900;pksep_atma:6.730;tksep_C:85.000;</v>
-      </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:6,730;tksep_C:85,000;</v>
+      </c>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -7785,7 +7772,7 @@
         <v>76</v>
       </c>
       <c r="C48" s="20">
-        <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,fw_,Pb_)</f>
+        <f>[1]!IPR_pi_sm3dayatm(Q_,Pwf_,Pres_,fw_,Pb_)</f>
         <v>0.29284164859002171</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -7834,7 +7821,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -7855,16 +7842,16 @@
       <c r="H62" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="I62" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J62" s="29" t="s">
+      <c r="J62" s="28" t="s">
         <v>84</v>
       </c>
       <c r="K62" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L62" s="31" t="s">
+      <c r="L62" s="30" t="s">
         <v>25</v>
       </c>
       <c r="M62" s="24" t="s">
@@ -7889,11 +7876,11 @@
         <v>40</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="J63" s="30">
+      <c r="J63" s="29">
         <f>[1]!MF_gas_fraction_d(K63,D63,fw_,PVT_str_)</f>
-        <v>0.34402803909956181</v>
-      </c>
-      <c r="K63" s="32">
+        <v>0.37651312845919432</v>
+      </c>
+      <c r="K63" s="31">
         <f>Pbuf_</f>
         <v>20</v>
       </c>
@@ -7910,13 +7897,13 @@
         <v>43</v>
       </c>
       <c r="F64" s="6"/>
-      <c r="J64" s="30">
+      <c r="J64" s="29">
         <f>[1]!MF_gas_fraction_d(K64,D64,fw_,PVT_str_)</f>
-        <v>0.19346776399272486</v>
+        <v>0.20951561389793688</v>
       </c>
       <c r="K64" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C63,C64,K63,PVT_str_,theta_,Dintake_,,D63,D64)</f>
-        <v>28.069598837794928</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C64-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D64)</f>
+        <v>26.849083227966933</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -7931,13 +7918,13 @@
         <v>46</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="J65" s="30">
+      <c r="J65" s="29">
         <f>[1]!MF_gas_fraction_d(K65,D65,fw_,PVT_str_)</f>
-        <v>7.6557121348091631E-2</v>
+        <v>4.4226404828620544E-2</v>
       </c>
       <c r="K65" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C64,C65,K64,PVT_str_,theta_,Dintake_,,D64,D65)</f>
-        <v>36.098847698491511</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C65-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D65)</f>
+        <v>34.391022795883714</v>
       </c>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
@@ -7952,13 +7939,13 @@
         <v>49</v>
       </c>
       <c r="F66" s="6"/>
-      <c r="J66" s="30">
+      <c r="J66" s="29">
         <f>[1]!MF_gas_fraction_d(K66,D66,fw_,PVT_str_)</f>
-        <v>1.2297345569209519E-17</v>
+        <v>0</v>
       </c>
       <c r="K66" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C65,C66,K65,PVT_str_,theta_,Dintake_,,D65,D66)</f>
-        <v>44.095408595123139</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C66-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D66)</f>
+        <v>42.58791116609396</v>
       </c>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
@@ -7973,13 +7960,13 @@
         <v>52</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="J67" s="30">
+      <c r="J67" s="29">
         <f>[1]!MF_gas_fraction_d(K67,D67,fw_,PVT_str_)</f>
-        <v>1.0442198408627226E-17</v>
+        <v>0</v>
       </c>
       <c r="K67" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C66,C67,K66,PVT_str_,theta_,Dintake_,,D66,D67)</f>
-        <v>52.068776094690534</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C67-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D67)</f>
+        <v>50.801006008814632</v>
       </c>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
@@ -7994,13 +7981,13 @@
         <v>55</v>
       </c>
       <c r="F68" s="6"/>
-      <c r="J68" s="30">
+      <c r="J68" s="29">
         <f>[1]!MF_gas_fraction_d(K68,D68,fw_,PVT_str_)</f>
-        <v>9.1007381124813757E-18</v>
+        <v>0</v>
       </c>
       <c r="K68" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C67,C68,K67,PVT_str_,theta_,Dintake_,,D67,D68)</f>
-        <v>60.023563548114204</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C68-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D68)</f>
+        <v>59.007037636116998</v>
       </c>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
@@ -8015,13 +8002,13 @@
         <v>58</v>
       </c>
       <c r="F69" s="6"/>
-      <c r="J69" s="30">
+      <c r="J69" s="29">
         <f>[1]!MF_gas_fraction_d(K69,D69,fw_,PVT_str_)</f>
-        <v>8.0899955512923439E-18</v>
+        <v>0</v>
       </c>
       <c r="K69" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C69,K68,PVT_str_,theta_,Dintake_,,D68,D69)</f>
-        <v>67.959637268474665</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D69)</f>
+        <v>67.205375363318268</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -8036,13 +8023,13 @@
         <v>61</v>
       </c>
       <c r="F70" s="6"/>
-      <c r="J70" s="30">
+      <c r="J70" s="29">
         <f>[1]!MF_gas_fraction_d(K70,D70,fw_,PVT_str_)</f>
-        <v>7.3042751245453246E-18</v>
+        <v>0</v>
       </c>
       <c r="K70" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C70,K69,PVT_str_,theta_,Dintake_,,D69,D70)</f>
-        <v>75.876913827273654</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D70)</f>
+        <v>75.390497417594091</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -8057,13 +8044,13 @@
         <v>64</v>
       </c>
       <c r="F71" s="6"/>
-      <c r="J71" s="30">
+      <c r="J71" s="29">
         <f>[1]!MF_gas_fraction_d(K71,D71,fw_,PVT_str_)</f>
-        <v>6.6783211840428977E-18</v>
+        <v>0</v>
       </c>
       <c r="K71" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C71,K70,PVT_str_,theta_,Dintake_,,D70,D71)</f>
-        <v>83.775340910388138</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D71)</f>
+        <v>83.567306314317037</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -8078,13 +8065,13 @@
         <v>67</v>
       </c>
       <c r="F72" s="6"/>
-      <c r="J72" s="30">
+      <c r="J72" s="29">
         <f>[1]!MF_gas_fraction_d(K72,D72,fw_,PVT_str_)</f>
-        <v>6.169710707498186E-18</v>
+        <v>0</v>
       </c>
       <c r="K72" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C72,K71,PVT_str_,theta_,Dintake_,,D71,D72)</f>
-        <v>91.654886861237017</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D72)</f>
+        <v>91.735596505487905</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -8099,13 +8086,13 @@
         <v>70</v>
       </c>
       <c r="F73" s="6"/>
-      <c r="J73" s="30">
+      <c r="J73" s="29">
         <f>[1]!MF_gas_fraction_d(K73,D73,fw_,PVT_str_)</f>
-        <v>5.749702253152948E-18</v>
+        <v>0</v>
       </c>
       <c r="K73" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C73,K72,PVT_str_,theta_,Dintake_,,D72,D73)</f>
-        <v>99.51553454533034</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D73)</f>
+        <v>99.89521353811547</v>
       </c>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
@@ -8120,13 +8107,13 @@
         <v>73</v>
       </c>
       <c r="F74" s="6"/>
-      <c r="J74" s="30">
+      <c r="J74" s="29">
         <f>[1]!MF_gas_fraction_d(K74,D74,fw_,PVT_str_)</f>
-        <v>5.3981553157034307E-18</v>
+        <v>0</v>
       </c>
       <c r="K74" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C74,K73,PVT_str_,theta_,Dintake_,,D73,D74)</f>
-        <v>107.35727753513933</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D74)</f>
+        <v>108.04603811321746</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -8141,13 +8128,13 @@
         <v>76</v>
       </c>
       <c r="F75" s="6"/>
-      <c r="J75" s="30">
+      <c r="J75" s="29">
         <f>[1]!MF_gas_fraction_d(K75,D75,fw_,PVT_str_)</f>
-        <v>5.1005545337288538E-18</v>
+        <v>0</v>
       </c>
       <c r="K75" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C75,K74,PVT_str_,theta_,Dintake_,,D74,D75)</f>
-        <v>115.18011761959782</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D75)</f>
+        <v>116.1879759834637</v>
       </c>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
@@ -8162,13 +8149,13 @@
         <v>79</v>
       </c>
       <c r="F76" s="6"/>
-      <c r="J76" s="30">
+      <c r="J76" s="29">
         <f>[1]!MF_gas_fraction_d(K76,D76,fw_,PVT_str_)</f>
-        <v>4.8461878175799456E-18</v>
+        <v>0</v>
       </c>
       <c r="K76" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C76,K75,PVT_str_,theta_,Dintake_,,D75,D76)</f>
-        <v>122.98406310901045</v>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D76)</f>
+        <v>124.32095129233221</v>
       </c>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
@@ -8183,13 +8170,13 @@
         <v>82</v>
       </c>
       <c r="F77" s="6"/>
-      <c r="J77" s="30">
+      <c r="J77" s="29">
         <f>[1]!MF_gas_fraction_d(K77,D77,fw_,PVT_str_)</f>
-        <v>4.6269885636720617E-18</v>
-      </c>
-      <c r="K77" s="33">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C77,K76,PVT_str_,theta_,Dintake_,,D76,D77)</f>
-        <v>130.76912763837063</v>
+        <v>0</v>
+      </c>
+      <c r="K77" s="20">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D77)</f>
+        <v>132.44490203221255</v>
       </c>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
@@ -8207,45 +8194,45 @@
         <v>85</v>
       </c>
       <c r="F78" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,F79,PVT_str_,theta_,Dtub_,,D79,D78)</f>
-        <v>32.947476615167879</v>
-      </c>
-      <c r="G78" s="35">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,$C$83-C78,$F$83,1,PVT_str_,theta_,Dtub_,,$D$83,D78)</f>
+        <v>30.985733198550612</v>
+      </c>
+      <c r="G78" s="34">
         <f>[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.68142692296570639</v>
-      </c>
-      <c r="H78" s="35">
+        <v>0.68541062785547402</v>
+      </c>
+      <c r="H78" s="34">
         <f>[1]!MF_ksep_total_d(G78,KsepGasSep_)</f>
-        <v>0.96814269229657068</v>
-      </c>
-      <c r="I78" s="37">
+        <v>0.96854106278554741</v>
+      </c>
+      <c r="I78" s="36">
         <f>[1]!MF_gas_fraction_d(F78,D78,fw_,PVT_str_)</f>
-        <v>0.18328843623623559</v>
-      </c>
-      <c r="J78" s="36">
+        <v>0.21179231693746101</v>
+      </c>
+      <c r="J78" s="35">
         <f>[1]!MF_gas_fraction_d(K78,D78,fw_,PVT_str_)</f>
-        <v>4.4367760687290421E-18</v>
+        <v>0</v>
       </c>
       <c r="K78" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C78,K77,PVT_str_,theta_,Dintake_,,D77,D78)</f>
-        <v>138.53532929463225</v>
-      </c>
-      <c r="L78" s="34"/>
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78-$C$63,$K$63,0,PVT_str_,theta_,Dtub_,,$D$63,D78)</f>
+        <v>140.55977685615014</v>
+      </c>
+      <c r="L78" s="33"/>
       <c r="M78" s="19">
-        <f>[1]!ESP_dP_atm(Q_,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVT_str_,Tintake_,0,1,,D60)</f>
-        <v>132.16362053816385</v>
-      </c>
-      <c r="N78" s="38">
+        <f>[1]!ESP_dp_atm(Q_,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVT_str_,Tintake_,0,1,,D60)</f>
+        <v>173.96948508016834</v>
+      </c>
+      <c r="N78" s="37">
         <f>K78-F78</f>
-        <v>105.58785267946436</v>
-      </c>
-      <c r="O78" s="39">
+        <v>109.57404365759953</v>
+      </c>
+      <c r="O78" s="38">
         <f>K78</f>
-        <v>138.53532929463225</v>
-      </c>
-      <c r="P78" s="39">
+        <v>140.55977685615014</v>
+      </c>
+      <c r="P78" s="38">
         <f>F78</f>
-        <v>32.947476615167879</v>
+        <v>30.985733198550612</v>
       </c>
     </row>
     <row r="79" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8258,13 +8245,13 @@
         <v>88</v>
       </c>
       <c r="E79" s="6"/>
-      <c r="F79" s="28">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,F80,PVT_str_,theta_,Dtub_,,D80,D79)</f>
-        <v>39.849063530788378</v>
-      </c>
-      <c r="I79" s="37">
+      <c r="F79" s="20">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,$C$83-C79,$F$83,1,PVT_str_,theta_,Dtub_,,$D$83,D79)</f>
+        <v>38.167180932718928</v>
+      </c>
+      <c r="I79" s="36">
         <f>[1]!MF_gas_fraction_d(F79,D79,fw_,PVT_str_)</f>
-        <v>0.10045416755297634</v>
+        <v>8.1470538245978982E-2</v>
       </c>
       <c r="K79" s="6"/>
     </row>
@@ -8279,12 +8266,12 @@
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,F81,PVT_str_,theta_,Dtub_,,D81,D80)</f>
-        <v>47.170208670418269</v>
-      </c>
-      <c r="I80" s="37">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,$C$83-C80,$F$83,1,PVT_str_,theta_,Dtub_,,$D$83,D80)</f>
+        <v>46.019832342828991</v>
+      </c>
+      <c r="I80" s="36">
         <f>[1]!MF_gas_fraction_d(F80,D80,fw_,PVT_str_)</f>
-        <v>2.7175553771486814E-2</v>
+        <v>0</v>
       </c>
       <c r="K80" s="6"/>
     </row>
@@ -8299,12 +8286,12 @@
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,F82,PVT_str_,theta_,Dtub_,,D82,D81)</f>
-        <v>54.771513193496723</v>
-      </c>
-      <c r="I81" s="37">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,$C$83-C81,$F$83,1,PVT_str_,theta_,Dtub_,,$D$83,D81)</f>
+        <v>54.010662961718801</v>
+      </c>
+      <c r="I81" s="36">
         <f>[1]!MF_gas_fraction_d(F81,D81,fw_,PVT_str_)</f>
-        <v>1.1037730772739565E-17</v>
+        <v>0</v>
       </c>
       <c r="K81" s="6"/>
     </row>
@@ -8319,12 +8306,12 @@
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="20">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,F83,PVT_str_,theta_,Dtub_,,D83,D82)</f>
-        <v>62.390584203938701</v>
-      </c>
-      <c r="I82" s="37">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,$C$83-C82,$F$83,1,PVT_str_,theta_,Dtub_,,$D$83,D82)</f>
+        <v>62.005127076195684</v>
+      </c>
+      <c r="I82" s="36">
         <f>[1]!MF_gas_fraction_d(F82,D82,fw_,PVT_str_)</f>
-        <v>9.7652416533565044E-18</v>
+        <v>0</v>
       </c>
       <c r="K82" s="6"/>
     </row>
@@ -8342,9 +8329,9 @@
         <f>Pwf_</f>
         <v>70</v>
       </c>
-      <c r="I83" s="37">
+      <c r="I83" s="36">
         <f>[1]!MF_gas_fraction_d(F83,D83,fw_,PVT_str_)</f>
-        <v>8.7797688233162175E-18</v>
+        <v>0</v>
       </c>
       <c r="K83" s="6"/>
     </row>
@@ -8369,16 +8356,16 @@
         <v>31</v>
       </c>
       <c r="D92" s="27">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C93" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="44">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,Pwf1_,fw_,Pb_)</f>
-        <v>54.555314533622564</v>
+      <c r="D93" s="43">
+        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,Pwf1_,fw_,Pb_)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8391,17 +8378,17 @@
     </row>
     <row r="95" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C95" s="18" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D95" s="27">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C96" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D96" s="41">
+      <c r="D96" s="40">
         <v>6.73</v>
       </c>
     </row>
@@ -8416,10 +8403,10 @@
     </row>
     <row r="98" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="3:14" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="42" t="s">
+      <c r="D99" s="41" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="9"/>
@@ -8432,10 +8419,10 @@
       <c r="H99" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I99" s="29" t="s">
+      <c r="I99" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J99" s="29" t="s">
+      <c r="J99" s="28" t="s">
         <v>84</v>
       </c>
       <c r="K99" s="24" t="s">
@@ -8452,316 +8439,316 @@
       </c>
     </row>
     <row r="100" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="43">
+      <c r="C100" s="42">
         <v>0</v>
       </c>
-      <c r="D100" s="43">
+      <c r="D100" s="42">
         <f t="shared" ref="D100:D119" si="2">D101-Tgrad*(C101-C100)/100</f>
         <v>40</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="J100" s="30">
+      <c r="J100" s="29">
         <f>[1]!MF_gas_fraction_d(K100,D100,fw_,PVT_str_)</f>
-        <v>0.19201531106691469</v>
-      </c>
-      <c r="K100" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C101,C100,K101,PVT_str_2,theta_,Dintake_,,D101,D100)</f>
-        <v>27.870144873562399</v>
+        <v>0</v>
+      </c>
+      <c r="K100" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C100,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D100)</f>
+        <v>81.550863767453876</v>
       </c>
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="43">
+      <c r="C101" s="42">
         <f t="shared" ref="C101:C120" si="3">C100+Hmes_/N_</f>
         <v>100</v>
       </c>
-      <c r="D101" s="43">
+      <c r="D101" s="42">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="J101" s="30">
+      <c r="J101" s="29">
         <f>[1]!MF_gas_fraction_d(K101,D101,fw_,PVT_str_)</f>
-        <v>7.2654452374216222E-2</v>
-      </c>
-      <c r="K101" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C102,C101,K102,PVT_str_2,theta_,Dintake_,,D102,D101)</f>
-        <v>35.991958694702568</v>
+        <v>0</v>
+      </c>
+      <c r="K101" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C101,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D101)</f>
+        <v>89.857988124148349</v>
       </c>
       <c r="L101" s="6"/>
     </row>
     <row r="102" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="43">
+      <c r="C102" s="42">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="D102" s="43">
+      <c r="D102" s="42">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="J102" s="30">
+      <c r="J102" s="29">
         <f>[1]!MF_gas_fraction_d(K102,D102,fw_,PVT_str_)</f>
-        <v>1.219341357564452E-17</v>
-      </c>
-      <c r="K102" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C103,C102,K103,PVT_str_2,theta_,Dintake_,,D103,D102)</f>
-        <v>44.089790465210328</v>
+        <v>0</v>
+      </c>
+      <c r="K102" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C102,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D102)</f>
+        <v>98.155714635210344</v>
       </c>
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="43">
+      <c r="C103" s="42">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="D103" s="43">
+      <c r="D103" s="42">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="J103" s="30">
+      <c r="J103" s="29">
         <f>[1]!MF_gas_fraction_d(K103,D103,fw_,PVT_str_)</f>
-        <v>1.0329784890851479E-17</v>
-      </c>
-      <c r="K103" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C104,C103,K104,PVT_str_2,theta_,Dintake_,,D104,D103)</f>
-        <v>52.164731588296547</v>
+        <v>0</v>
+      </c>
+      <c r="K103" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C103,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D103)</f>
+        <v>106.44418929715984</v>
       </c>
       <c r="L103" s="6"/>
     </row>
     <row r="104" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="43">
+      <c r="C104" s="42">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="D104" s="43">
+      <c r="D104" s="42">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="J104" s="30">
+      <c r="J104" s="29">
         <f>[1]!MF_gas_fraction_d(K104,D104,fw_,PVT_str_)</f>
-        <v>8.988105467755807E-18</v>
-      </c>
-      <c r="K104" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C105,C104,K105,PVT_str_2,theta_,Dintake_,,D105,D104)</f>
-        <v>60.217390592598726</v>
+        <v>0</v>
+      </c>
+      <c r="K104" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C104,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D104)</f>
+        <v>114.72351902958214</v>
       </c>
       <c r="L104" s="6"/>
     </row>
     <row r="105" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="43">
+      <c r="C105" s="42">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="D105" s="43">
+      <c r="D105" s="42">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="J105" s="30">
+      <c r="J105" s="29">
         <f>[1]!MF_gas_fraction_d(K105,D105,fw_,PVT_str_)</f>
-        <v>7.9805696439782448E-18</v>
-      </c>
-      <c r="K105" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C106,C105,K106,PVT_str_2,theta_,Dintake_,,D106,D105)</f>
-        <v>68.248142503160679</v>
+        <v>0</v>
+      </c>
+      <c r="K105" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C105,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D105)</f>
+        <v>122.99378330358932</v>
       </c>
       <c r="L105" s="6"/>
     </row>
     <row r="106" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="43">
+      <c r="C106" s="42">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="D106" s="43">
+      <c r="D106" s="42">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="J106" s="30">
+      <c r="J106" s="29">
         <f>[1]!MF_gas_fraction_d(K106,D106,fw_,PVT_str_)</f>
-        <v>7.1994198163644578E-18</v>
-      </c>
-      <c r="K106" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C107,C106,K107,PVT_str_2,theta_,Dintake_,,D107,D106)</f>
-        <v>76.257236682032556</v>
+        <v>0</v>
+      </c>
+      <c r="K106" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C106,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D106)</f>
+        <v>131.2550418968174</v>
       </c>
       <c r="L106" s="6"/>
     </row>
     <row r="107" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="43">
+      <c r="C107" s="42">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="D107" s="43">
+      <c r="D107" s="42">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
-      <c r="J107" s="30">
+      <c r="J107" s="29">
         <f>[1]!MF_gas_fraction_d(K107,D107,fw_,PVT_str_)</f>
-        <v>6.5784691792870963E-18</v>
-      </c>
-      <c r="K107" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C108,C107,K108,PVT_str_2,theta_,Dintake_,,D108,D107)</f>
-        <v>84.244849693692998</v>
+        <v>0</v>
+      </c>
+      <c r="K107" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C107,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D107)</f>
+        <v>139.50734021071773</v>
       </c>
       <c r="L107" s="6"/>
     </row>
     <row r="108" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="43">
+      <c r="C108" s="42">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="D108" s="43">
+      <c r="D108" s="42">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="J108" s="30">
+      <c r="J108" s="29">
         <f>[1]!MF_gas_fraction_d(K108,D108,fw_,PVT_str_)</f>
-        <v>6.0748639229061196E-18</v>
-      </c>
-      <c r="K108" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C109,C108,K109,PVT_str_2,theta_,Dintake_,,D109,D108)</f>
-        <v>92.211113671128615</v>
+        <v>0</v>
+      </c>
+      <c r="K108" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C108,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D108)</f>
+        <v>147.75071300161892</v>
       </c>
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="43">
+      <c r="C109" s="42">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="D109" s="43">
+      <c r="D109" s="42">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="J109" s="30">
+      <c r="J109" s="29">
         <f>[1]!MF_gas_fraction_d(K109,D109,fw_,PVT_str_)</f>
-        <v>5.6596660303075542E-18</v>
-      </c>
-      <c r="K109" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C110,C109,K110,PVT_str_2,theta_,Dintake_,,D110,D109)</f>
-        <v>100.15613260881571</v>
+        <v>0</v>
+      </c>
+      <c r="K109" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C109,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D109)</f>
+        <v>155.98518704966031</v>
       </c>
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="43">
+      <c r="C110" s="42">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="D110" s="43">
+      <c r="D110" s="42">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="J110" s="30">
+      <c r="J110" s="29">
         <f>[1]!MF_gas_fraction_d(K110,D110,fw_,PVT_str_)</f>
-        <v>5.3126519568417556E-18</v>
-      </c>
-      <c r="K110" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C111,C110,K111,PVT_str_2,theta_,Dintake_,,D111,D110)</f>
-        <v>108.07999222907593</v>
+        <v>0</v>
+      </c>
+      <c r="K110" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C110,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D110)</f>
+        <v>164.21078309872837</v>
       </c>
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="43">
+      <c r="C111" s="42">
         <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-      <c r="D111" s="43">
+      <c r="D111" s="42">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="J111" s="30">
+      <c r="J111" s="29">
         <f>[1]!MF_gas_fraction_d(K111,D111,fw_,PVT_str_)</f>
-        <v>5.0192791692298551E-18</v>
-      </c>
-      <c r="K111" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C112,C111,K112,PVT_str_2,theta_,Dintake_,,D112,D111)</f>
-        <v>115.98276621182417</v>
+        <v>0</v>
+      </c>
+      <c r="K111" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C111,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D111)</f>
+        <v>172.42751728516939</v>
       </c>
       <c r="L111" s="6"/>
     </row>
     <row r="112" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="43">
+      <c r="C112" s="42">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="D112" s="43">
+      <c r="D112" s="42">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="J112" s="30">
+      <c r="J112" s="29">
         <f>[1]!MF_gas_fraction_d(K112,D112,fw_,PVT_str_)</f>
-        <v>4.7688356817856416E-18</v>
-      </c>
-      <c r="K112" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C113,C112,K113,PVT_str_2,theta_,Dintake_,,D113,D112)</f>
-        <v>123.86452026179741</v>
+        <v>0</v>
+      </c>
+      <c r="K112" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C112,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D112)</f>
+        <v>180.63540220120836</v>
       </c>
       <c r="L112" s="6"/>
     </row>
     <row r="113" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="43">
+      <c r="C113" s="42">
         <f t="shared" si="3"/>
         <v>1300</v>
       </c>
-      <c r="D113" s="43">
+      <c r="D113" s="42">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
-      <c r="J113" s="30">
+      <c r="J113" s="29">
         <f>[1]!MF_gas_fraction_d(K113,D113,fw_,PVT_str_)</f>
-        <v>4.5532677718861448E-18</v>
-      </c>
-      <c r="K113" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C114,C113,K114,PVT_str_2,theta_,Dintake_,,D114,D113)</f>
-        <v>131.72531483600002</v>
+        <v>0</v>
+      </c>
+      <c r="K113" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C113,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D113)</f>
+        <v>188.83444769303628</v>
       </c>
       <c r="L113" s="6"/>
     </row>
     <row r="114" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="43">
+      <c r="C114" s="42">
         <f t="shared" si="3"/>
         <v>1400</v>
       </c>
-      <c r="D114" s="43">
+      <c r="D114" s="42">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="J114" s="30">
+      <c r="J114" s="29">
         <f>[1]!MF_gas_fraction_d(K114,D114,fw_,PVT_str_)</f>
-        <v>4.3664129806500547E-18</v>
-      </c>
-      <c r="K114" s="33">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C115,C114,K115,PVT_str_2,theta_,Dintake_,,D115,D114)</f>
-        <v>139.56520701207378</v>
+        <v>0</v>
+      </c>
+      <c r="K114" s="32">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C114,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D114)</f>
+        <v>197.02466146340223</v>
       </c>
       <c r="L114" s="6"/>
     </row>
@@ -8769,150 +8756,150 @@
       <c r="B115" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="43">
+      <c r="C115" s="42">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="D115" s="43">
+      <c r="D115" s="42">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C116,C115,F116,PVT_str_2,theta_,Dtub_,,D116,D115)</f>
-        <v>6.7331438088841065</v>
-      </c>
-      <c r="G115" s="40">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C115,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D115)</f>
+        <v>29.555856184319655</v>
+      </c>
+      <c r="G115" s="39">
         <f>[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.68142692296570639</v>
-      </c>
-      <c r="H115" s="35">
+        <v>0.68541062785547402</v>
+      </c>
+      <c r="H115" s="34">
         <f>[1]!MF_ksep_total_d(G115,KsepGasSep_)</f>
-        <v>0.96814269229657068</v>
-      </c>
-      <c r="I115" s="37">
+        <v>0.96854106278554741</v>
+      </c>
+      <c r="I115" s="36">
         <f>[1]!MF_gas_fraction_d(F115,D115,fw_,PVT_str_)</f>
-        <v>0.73571692055192517</v>
-      </c>
-      <c r="J115" s="36">
+        <v>0.24067644173163219</v>
+      </c>
+      <c r="J115" s="35">
         <f>[1]!MF_gas_fraction_d(K115,D115,fw_,PVT_str_)</f>
-        <v>4.2034840859843011E-18</v>
-      </c>
-      <c r="K115" s="41">
+        <v>0</v>
+      </c>
+      <c r="K115" s="40">
         <f>F115+L115</f>
-        <v>147.38425178956899</v>
+        <v>205.20604952837439</v>
       </c>
       <c r="L115" s="19">
-        <f>[1]!ESP_dP_atm(Qreal_,fw_,F115,NumStage_,Freq1_,PumpID_,PVT_str_2,D115,0,1,1,Kdegr1_)</f>
-        <v>140.65110798068488</v>
-      </c>
-      <c r="M115" s="39">
+        <f>[1]!ESP_dp_atm(Qreal_,fw_,F115,NumStage_,Freq1_,PumpID_,PVT_str_2,D115,0,1,1,Kdegr1_)</f>
+        <v>175.65019334405474</v>
+      </c>
+      <c r="M115" s="38">
         <f>K115</f>
-        <v>147.38425178956899</v>
-      </c>
-      <c r="N115" s="39">
+        <v>205.20604952837439</v>
+      </c>
+      <c r="N115" s="38">
         <f>F115</f>
-        <v>6.7331438088841065</v>
+        <v>29.555856184319655</v>
       </c>
     </row>
     <row r="116" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="43">
+      <c r="C116" s="42">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="D116" s="43">
+      <c r="D116" s="42">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C117,C116,F117,PVT_str_2,theta_,Dtub_,,D117,D116)</f>
-        <v>12.051738663066907</v>
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C116,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D116)</f>
+        <v>37.647808746435871</v>
       </c>
       <c r="G116" s="6"/>
-      <c r="I116" s="37">
+      <c r="I116" s="36">
         <f>[1]!MF_gas_fraction_d(F116,D116,fw_,PVT_str_)</f>
-        <v>0.58181747834042796</v>
+        <v>9.0984814014799631E-2</v>
       </c>
       <c r="M116" s="6"/>
     </row>
     <row r="117" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="43">
+      <c r="C117" s="42">
         <f t="shared" si="3"/>
         <v>1700</v>
       </c>
-      <c r="D117" s="43">
+      <c r="D117" s="42">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C118,C117,F118,PVT_str_2,theta_,Dtub_,,D118,D117)</f>
-        <v>18.096438044379216</v>
-      </c>
-      <c r="I117" s="37">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C117,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D117)</f>
+        <v>45.741003998978627</v>
+      </c>
+      <c r="I117" s="36">
         <f>[1]!MF_gas_fraction_d(F117,D117,fw_,PVT_str_)</f>
-        <v>0.44288839994951162</v>
+        <v>0</v>
       </c>
       <c r="M117" s="6"/>
     </row>
     <row r="118" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="43">
+      <c r="C118" s="42">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="D118" s="43">
+      <c r="D118" s="42">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C119,C118,F119,PVT_str_2,theta_,Dtub_,,D119,D118)</f>
-        <v>24.855097652679916</v>
-      </c>
-      <c r="I118" s="37">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C118,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D118)</f>
+        <v>53.831983978691397</v>
+      </c>
+      <c r="I118" s="36">
         <f>[1]!MF_gas_fraction_d(F118,D118,fw_,PVT_str_)</f>
-        <v>0.31884910134615718</v>
+        <v>0</v>
       </c>
       <c r="M118" s="6"/>
     </row>
     <row r="119" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="43">
+      <c r="C119" s="42">
         <f t="shared" si="3"/>
         <v>1900</v>
       </c>
-      <c r="D119" s="43">
+      <c r="D119" s="42">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,C120,C119,F120,PVT_str_2,theta_,Dtub_,,D120,D119)</f>
-        <v>32.362274830400281</v>
-      </c>
-      <c r="I119" s="37">
+        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C119,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D119)</f>
+        <v>61.918740334577336</v>
+      </c>
+      <c r="I119" s="36">
         <f>[1]!MF_gas_fraction_d(F119,D119,fw_,PVT_str_)</f>
-        <v>0.20836499535858</v>
+        <v>0</v>
       </c>
       <c r="M119" s="6"/>
     </row>
     <row r="120" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="43">
+      <c r="C120" s="42">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="D120" s="43">
+      <c r="D120" s="42">
         <f>Tres_</f>
         <v>100</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="27">
         <f>Pwf1_</f>
-        <v>40</v>
-      </c>
-      <c r="I120" s="37">
+        <v>70</v>
+      </c>
+      <c r="I120" s="36">
         <f>[1]!MF_gas_fraction_d(F120,D120,fw_,PVT_str_)</f>
-        <v>0.11751890522059669</v>
+        <v>0</v>
       </c>
       <c r="M120" s="6"/>
     </row>

--- a/excercises/excercises/100.ESP_well.xlsx
+++ b/excercises/excercises/100.ESP_well.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CCFF0A-31C7-4AAE-8056-AC95EDF5B71A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F063E220-AA7E-4B2B-B7FA-6DE9394DB8CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="well" sheetId="107" r:id="rId1"/>
@@ -3012,19 +3012,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="15">
-                  <c:v>29.555856184319655</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.647808746435871</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.741003998978627</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53.831983978691397</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.918740334577336</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
                   <c:v>70</c:v>
@@ -3156,52 +3156,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>81.550863767453876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.857988124148349</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.155714635210344</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.44418929715984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114.72351902958214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122.99378330358932</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131.2550418968174</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>139.50734021071773</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>147.75071300161892</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155.98518704966031</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>164.21078309872837</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172.42751728516939</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>180.63540220120836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>188.83444769303628</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>197.02466146340223</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>205.20604952837439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,10 +3741,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="15" formatCode="0%">
-                  <c:v>0.24067644173163219</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0%">
-                  <c:v>9.0984814014799631E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0%">
                   <c:v>0</c:v>
@@ -6848,8 +6848,8 @@
       <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7157,24 +7157,24 @@
   </sheetPr>
   <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -7183,20 +7183,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
         <v>39</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14" t="s">
         <v>41</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
         <v>48</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>50</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B15" s="21" t="s">
         <v>78</v>
       </c>
@@ -7338,18 +7338,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B18" s="16" t="s">
         <v>51</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B19" s="16" t="s">
         <v>52</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B20" s="16" t="s">
         <v>53</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B21" s="16" t="s">
         <v>54</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B22" s="16" t="s">
         <v>55</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B23" s="23" t="s">
         <v>80</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B24" s="16" t="s">
         <v>56</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B25" s="16" t="s">
         <v>57</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B26" s="16" t="s">
         <v>58</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B27" s="16" t="s">
         <v>59</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B28" s="16" t="s">
         <v>60</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B29" s="16" t="s">
         <v>61</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B30" s="16" t="s">
         <v>62</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B32" s="16" t="s">
         <v>64</v>
       </c>
@@ -7514,13 +7514,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:24" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B35" s="17" t="s">
         <v>65</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B36" s="17" t="s">
         <v>66</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>67</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>68</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="W38" s="46"/>
       <c r="X38" s="46"/>
     </row>
-    <row r="39" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>69</v>
       </c>
@@ -7594,7 +7594,7 @@
       <c r="D39" s="17"/>
       <c r="G39" s="45" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:32,950;tksep_C:85,000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;p_ksep_atma:32,950;t_ksep_C:85,000;gas_only:False;</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="45"/>
@@ -7614,7 +7614,7 @@
       <c r="W39" s="45"/>
       <c r="X39" s="45"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B40" s="17" t="s">
         <v>70</v>
       </c>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>20</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="W41" s="46"/>
       <c r="X41" s="46"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B42" s="17" t="s">
         <v>72</v>
       </c>
@@ -7666,7 +7666,7 @@
       <c r="D42" s="17"/>
       <c r="G42" s="45" t="str">
         <f>[1]!ESP_encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:0,00000;c_calibr_rate:0,00000;c_calibr_power:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
+        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_h_mes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:0,00000;c_calibr_rate:0,00000;c_calibr_power:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="45"/>
@@ -7686,7 +7686,7 @@
       <c r="W42" s="45"/>
       <c r="X42" s="45"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B43" s="17" t="s">
         <v>73</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B44" s="17" t="s">
         <v>74</v>
       </c>
@@ -7728,10 +7728,10 @@
       <c r="W44" s="46"/>
       <c r="X44" s="46"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G45" s="45" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep2,TKsep2)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:6,730;tksep_C:85,000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:5,000;PVTcorr:0;ksep_fr:0,900;p_ksep_atma:6,730;t_ksep_C:85,000;gas_only:False;</v>
       </c>
       <c r="H45" s="45"/>
       <c r="I45" s="45"/>
@@ -7751,12 +7751,12 @@
       <c r="W45" s="45"/>
       <c r="X45" s="45"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B47" s="17" t="s">
         <v>75</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>76</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
         <v>77</v>
       </c>
@@ -7790,12 +7790,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
@@ -7804,19 +7804,19 @@
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="56" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C60" s="18" t="s">
         <v>25</v>
       </c>
@@ -7824,8 +7824,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:16" ht="76.5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:16" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C62" s="25" t="s">
         <v>15</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C63" s="26">
         <v>0</v>
       </c>
@@ -7887,7 +7887,7 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C64" s="26">
         <f t="shared" ref="C64:C83" si="1">C63+Hmes_/N_</f>
         <v>100</v>
@@ -7908,7 +7908,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C65" s="26">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -7929,7 +7929,7 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C66" s="26">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -7950,7 +7950,7 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
     </row>
-    <row r="67" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C67" s="26">
         <f t="shared" si="1"/>
         <v>400</v>
@@ -7971,7 +7971,7 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="68" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C68" s="26">
         <f t="shared" si="1"/>
         <v>500</v>
@@ -7992,7 +7992,7 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
     </row>
-    <row r="69" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C69" s="26">
         <f t="shared" si="1"/>
         <v>600</v>
@@ -8013,7 +8013,7 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
     </row>
-    <row r="70" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C70" s="26">
         <f t="shared" si="1"/>
         <v>700</v>
@@ -8034,7 +8034,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
     </row>
-    <row r="71" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C71" s="26">
         <f t="shared" si="1"/>
         <v>800</v>
@@ -8055,7 +8055,7 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C72" s="26">
         <f t="shared" si="1"/>
         <v>900</v>
@@ -8076,7 +8076,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
     </row>
-    <row r="73" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C73" s="26">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -8097,7 +8097,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="74" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C74" s="26">
         <f t="shared" si="1"/>
         <v>1100</v>
@@ -8118,7 +8118,7 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
     </row>
-    <row r="75" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C75" s="26">
         <f t="shared" si="1"/>
         <v>1200</v>
@@ -8139,7 +8139,7 @@
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
     </row>
-    <row r="76" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C76" s="26">
         <f t="shared" si="1"/>
         <v>1300</v>
@@ -8160,7 +8160,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
     </row>
-    <row r="77" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C77" s="26">
         <f t="shared" si="1"/>
         <v>1400</v>
@@ -8181,7 +8181,7 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>29</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>30.985733198550612</v>
       </c>
     </row>
-    <row r="79" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C79" s="26">
         <f t="shared" si="1"/>
         <v>1600</v>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C80" s="26">
         <f t="shared" si="1"/>
         <v>1700</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C81" s="26">
         <f t="shared" si="1"/>
         <v>1800</v>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C82" s="26">
         <f t="shared" si="1"/>
         <v>1900</v>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C83" s="26">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -8335,23 +8335,23 @@
       </c>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C92" s="17" t="s">
         <v>31</v>
       </c>
@@ -8359,16 +8359,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C93" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="43">
-        <f>[1]!IPR_qliq_sm3day(PI_,Pres_,Pwf1_,fw_,Pb_)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D93" s="43" t="e">
+        <f ca="1">[1]!IPR_qliq_sm3day(PI_,Pres_,Pwf1_,fw_,Pb_)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C94" s="17" t="s">
         <v>1</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C95" s="18" t="s">
         <v>91</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C96" s="17" t="s">
         <v>73</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="97" spans="3:14" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C97" s="17" t="s">
         <v>74</v>
       </c>
@@ -8401,8 +8401,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="3:14" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="3:14" ht="52" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C99" s="41" t="s">
         <v>15</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C100" s="42">
         <v>0</v>
       </c>
@@ -8448,17 +8448,17 @@
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="J100" s="29">
-        <f>[1]!MF_gas_fraction_d(K100,D100,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C100,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D100)</f>
-        <v>81.550863767453876</v>
+      <c r="J100" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K100,D100,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K100" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C100,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C101" s="42">
         <f t="shared" ref="C101:C120" si="3">C100+Hmes_/N_</f>
         <v>100</v>
@@ -8469,17 +8469,17 @@
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="J101" s="29">
-        <f>[1]!MF_gas_fraction_d(K101,D101,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C101,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D101)</f>
-        <v>89.857988124148349</v>
+      <c r="J101" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K101,D101,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K101" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C101,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D101)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L101" s="6"/>
     </row>
-    <row r="102" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C102" s="42">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -8490,17 +8490,17 @@
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="J102" s="29">
-        <f>[1]!MF_gas_fraction_d(K102,D102,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C102,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D102)</f>
-        <v>98.155714635210344</v>
+      <c r="J102" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K102,D102,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K102" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C102,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D102)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L102" s="6"/>
     </row>
-    <row r="103" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C103" s="42">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -8511,17 +8511,17 @@
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="J103" s="29">
-        <f>[1]!MF_gas_fraction_d(K103,D103,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C103,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D103)</f>
-        <v>106.44418929715984</v>
+      <c r="J103" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K103,D103,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K103" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C103,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D103)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L103" s="6"/>
     </row>
-    <row r="104" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C104" s="42">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -8532,17 +8532,17 @@
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="J104" s="29">
-        <f>[1]!MF_gas_fraction_d(K104,D104,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K104" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C104,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D104)</f>
-        <v>114.72351902958214</v>
+      <c r="J104" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K104,D104,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K104" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C104,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D104)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L104" s="6"/>
     </row>
-    <row r="105" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C105" s="42">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -8553,17 +8553,17 @@
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="J105" s="29">
-        <f>[1]!MF_gas_fraction_d(K105,D105,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K105" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C105,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D105)</f>
-        <v>122.99378330358932</v>
+      <c r="J105" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K105,D105,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K105" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C105,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D105)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L105" s="6"/>
     </row>
-    <row r="106" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C106" s="42">
         <f t="shared" si="3"/>
         <v>600</v>
@@ -8574,17 +8574,17 @@
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="J106" s="29">
-        <f>[1]!MF_gas_fraction_d(K106,D106,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K106" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C106,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D106)</f>
-        <v>131.2550418968174</v>
+      <c r="J106" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K106,D106,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K106" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C106,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D106)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L106" s="6"/>
     </row>
-    <row r="107" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C107" s="42">
         <f t="shared" si="3"/>
         <v>700</v>
@@ -8595,17 +8595,17 @@
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
-      <c r="J107" s="29">
-        <f>[1]!MF_gas_fraction_d(K107,D107,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C107,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D107)</f>
-        <v>139.50734021071773</v>
+      <c r="J107" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K107,D107,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K107" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C107,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D107)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L107" s="6"/>
     </row>
-    <row r="108" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C108" s="42">
         <f t="shared" si="3"/>
         <v>800</v>
@@ -8616,17 +8616,17 @@
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="J108" s="29">
-        <f>[1]!MF_gas_fraction_d(K108,D108,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K108" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C108,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D108)</f>
-        <v>147.75071300161892</v>
+      <c r="J108" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K108,D108,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K108" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C108,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D108)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L108" s="6"/>
     </row>
-    <row r="109" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C109" s="42">
         <f t="shared" si="3"/>
         <v>900</v>
@@ -8637,17 +8637,17 @@
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="J109" s="29">
-        <f>[1]!MF_gas_fraction_d(K109,D109,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K109" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C109,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D109)</f>
-        <v>155.98518704966031</v>
+      <c r="J109" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K109,D109,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K109" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C109,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D109)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C110" s="42">
         <f t="shared" si="3"/>
         <v>1000</v>
@@ -8658,17 +8658,17 @@
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="J110" s="29">
-        <f>[1]!MF_gas_fraction_d(K110,D110,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K110" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C110,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D110)</f>
-        <v>164.21078309872837</v>
+      <c r="J110" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K110,D110,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K110" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C110,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D110)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L110" s="6"/>
     </row>
-    <row r="111" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C111" s="42">
         <f t="shared" si="3"/>
         <v>1100</v>
@@ -8679,17 +8679,17 @@
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="J111" s="29">
-        <f>[1]!MF_gas_fraction_d(K111,D111,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K111" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C111,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D111)</f>
-        <v>172.42751728516939</v>
+      <c r="J111" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K111,D111,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K111" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C111,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D111)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L111" s="6"/>
     </row>
-    <row r="112" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C112" s="42">
         <f t="shared" si="3"/>
         <v>1200</v>
@@ -8700,17 +8700,17 @@
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="J112" s="29">
-        <f>[1]!MF_gas_fraction_d(K112,D112,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C112,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D112)</f>
-        <v>180.63540220120836</v>
+      <c r="J112" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K112,D112,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K112" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C112,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D112)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L112" s="6"/>
     </row>
-    <row r="113" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C113" s="42">
         <f t="shared" si="3"/>
         <v>1300</v>
@@ -8721,17 +8721,17 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
-      <c r="J113" s="29">
-        <f>[1]!MF_gas_fraction_d(K113,D113,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K113" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C113,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D113)</f>
-        <v>188.83444769303628</v>
+      <c r="J113" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K113,D113,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K113" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C113,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D113)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L113" s="6"/>
     </row>
-    <row r="114" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C114" s="42">
         <f t="shared" si="3"/>
         <v>1400</v>
@@ -8742,17 +8742,17 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="J114" s="29">
-        <f>[1]!MF_gas_fraction_d(K114,D114,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K114" s="32">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C114,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D114)</f>
-        <v>197.02466146340223</v>
+      <c r="J114" s="29" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K114,D114,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K114" s="32" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$115-C114,$K$115,1,PVT_str_2,theta_,Dtub_,,$D$115,D114)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>29</v>
       </c>
@@ -8765,9 +8765,9 @@
         <v>85</v>
       </c>
       <c r="E115" s="6"/>
-      <c r="F115" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C115,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D115)</f>
-        <v>29.555856184319655</v>
+      <c r="F115" s="20" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C115,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D115)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G115" s="39">
         <f>[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
@@ -8777,32 +8777,32 @@
         <f>[1]!MF_ksep_total_d(G115,KsepGasSep_)</f>
         <v>0.96854106278554741</v>
       </c>
-      <c r="I115" s="36">
-        <f>[1]!MF_gas_fraction_d(F115,D115,fw_,PVT_str_)</f>
-        <v>0.24067644173163219</v>
-      </c>
-      <c r="J115" s="35">
-        <f>[1]!MF_gas_fraction_d(K115,D115,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="K115" s="40">
-        <f>F115+L115</f>
-        <v>205.20604952837439</v>
-      </c>
-      <c r="L115" s="19">
-        <f>[1]!ESP_dp_atm(Qreal_,fw_,F115,NumStage_,Freq1_,PumpID_,PVT_str_2,D115,0,1,1,Kdegr1_)</f>
-        <v>175.65019334405474</v>
-      </c>
-      <c r="M115" s="38">
-        <f>K115</f>
-        <v>205.20604952837439</v>
-      </c>
-      <c r="N115" s="38">
-        <f>F115</f>
-        <v>29.555856184319655</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="I115" s="36" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(F115,D115,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J115" s="35" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(K115,D115,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K115" s="40" t="e">
+        <f ca="1">F115+L115</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L115" s="19" t="e">
+        <f ca="1">[1]!ESP_dp_atm(Qreal_,fw_,F115,NumStage_,Freq1_,PumpID_,PVT_str_2,D115,0,1,1,Kdegr1_)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M115" s="38" t="e">
+        <f ca="1">K115</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N115" s="38" t="e">
+        <f ca="1">F115</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C116" s="42">
         <f t="shared" si="3"/>
         <v>1600</v>
@@ -8812,18 +8812,18 @@
         <v>88</v>
       </c>
       <c r="E116" s="6"/>
-      <c r="F116" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C116,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D116)</f>
-        <v>37.647808746435871</v>
+      <c r="F116" s="20" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C116,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D116)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G116" s="6"/>
-      <c r="I116" s="36">
-        <f>[1]!MF_gas_fraction_d(F116,D116,fw_,PVT_str_)</f>
-        <v>9.0984814014799631E-2</v>
+      <c r="I116" s="36" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(F116,D116,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C117" s="42">
         <f t="shared" si="3"/>
         <v>1700</v>
@@ -8833,17 +8833,17 @@
         <v>91</v>
       </c>
       <c r="E117" s="6"/>
-      <c r="F117" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C117,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D117)</f>
-        <v>45.741003998978627</v>
-      </c>
-      <c r="I117" s="36">
-        <f>[1]!MF_gas_fraction_d(F117,D117,fw_,PVT_str_)</f>
-        <v>0</v>
+      <c r="F117" s="20" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C117,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D117)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I117" s="36" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(F117,D117,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C118" s="42">
         <f t="shared" si="3"/>
         <v>1800</v>
@@ -8853,17 +8853,17 @@
         <v>94</v>
       </c>
       <c r="E118" s="6"/>
-      <c r="F118" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C118,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D118)</f>
-        <v>53.831983978691397</v>
-      </c>
-      <c r="I118" s="36">
-        <f>[1]!MF_gas_fraction_d(F118,D118,fw_,PVT_str_)</f>
-        <v>0</v>
+      <c r="F118" s="20" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C118,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D118)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I118" s="36" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(F118,D118,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C119" s="42">
         <f t="shared" si="3"/>
         <v>1900</v>
@@ -8873,17 +8873,17 @@
         <v>97</v>
       </c>
       <c r="E119" s="6"/>
-      <c r="F119" s="20">
-        <f>[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C119,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D119)</f>
-        <v>61.918740334577336</v>
-      </c>
-      <c r="I119" s="36">
-        <f>[1]!MF_gas_fraction_d(F119,D119,fw_,PVT_str_)</f>
-        <v>0</v>
+      <c r="F119" s="20" t="e">
+        <f ca="1">[1]!MF_p_pipe_atma(Qreal_,fw_,$C$120-C119,$F$120,1,PVT_str_2,theta_,Dcas_,,$D$120,D119)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I119" s="36" t="e">
+        <f ca="1">[1]!MF_gas_fraction_d(F119,D119,fw_,PVT_str_)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C120" s="42">
         <f t="shared" si="3"/>
         <v>2000</v>
@@ -8903,14 +8903,14 @@
       </c>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="182" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L182" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L193" s="7"/>
     </row>
   </sheetData>
